--- a/Python/Badge requirements and projects.xlsx
+++ b/Python/Badge requirements and projects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be49cdc33987dcc/Dokumente/CoderDojo/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be49cdc33987dcc/Dokumente/CoderDojo/github/Repos/DojoContent/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="227" documentId="8_{234651D2-97EF-47C1-A539-A998FA6CCC9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9CBCCFCB-CD6F-4D70-9D26-2C55ECBA2446}"/>
